--- a/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2010 Promos  (PDP10).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Duels of the Planeswalkers 2010 Promos  (PDP10).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A15"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,98 +444,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Liliana Vess</t>
+          <t>('Liliana Vess', ['{3}{B}{B}', 'Legendary Planeswalker — Liliana', '+1: Target player discards a card.', '−2: Search your library for a card, then shuffle your library and put that card on top of it.', '−8: Put all creature cards from all graveyards onto the battlefield under your control.', 'Loyalty: 5'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{3}{B}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Liliana</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>+1: Target player discards a card.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>−2: Search your library for a card, then shuffle your library and put that card on top of it.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>−8: Put all creature cards from all graveyards onto the battlefield under your control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Loyalty: 5</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Nissa Revane</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>{2}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Legendary Planeswalker — Nissa</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>+1: Search your library for a card named Nissa’s Chosen and put it onto the battlefield. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>+1: You gain 2 life for each Elf you control.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>−7: Search your library for any number of Elf creature cards and put them onto the battlefield. Then shuffle your library.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Loyalty: 2</t>
+          <t>('Nissa Revane', ['{2}{G}{G}', 'Legendary Planeswalker — Nissa', '+1: Search your library for a card named Nissa’s Chosen and put it onto the battlefield. Then shuffle your library.', '+1: You gain 2 life for each Elf you control.', '−7: Search your library for any number of Elf creature cards and put them onto the battlefield. Then shuffle your library.', 'Loyalty: 2'])</t>
         </is>
       </c>
     </row>
